--- a/일간전공정리.xlsx
+++ b/일간전공정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\sgzProject\S23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81DF2316-9E64-4CF8-8366-1F0AD63948F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB619F-853E-4DDE-943E-AB911B708CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="3600" windowWidth="18960" windowHeight="15705" xr2:uid="{702EB029-2EC9-4F33-87B2-42DE0994E592}"/>
+    <workbookView xWindow="8880" yWindow="2025" windowWidth="18960" windowHeight="15705" xr2:uid="{702EB029-2EC9-4F33-87B2-42DE0994E592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1189,13 +1189,13 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
